--- a/Plancheck/plancheck_data/check_protocol/WB RTC.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/WB RTC.xlsx
@@ -1329,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
